--- a/VRSS_Ref/final/refr-experiments-v2.xlsx
+++ b/VRSS_Ref/final/refr-experiments-v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/VRSS_Ref/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE3935-CA17-564B-9E93-304A9D50C9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD1146D-E01E-2641-A4D3-85E00C2F2802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="500" windowWidth="19700" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12820" yWindow="760" windowWidth="17420" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="experiments.txt" sheetId="1" r:id="rId1"/>
@@ -107,10 +107,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please enter either a study user defined ID or ImmPort accession for the study in which the experiment occurs.  The template column is associated with the following database table column experiment.study_accession and has data type varchar(15)</t>
         </r>
@@ -121,10 +120,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>Please enter either a protocol user defined ID or ImmPort accession.  The template column is associated with the following database table column experiment_2_protocol.protocol_accession and has data type varchar(15)</t>
         </r>
@@ -135,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="679">
   <si>
     <t>experiments</t>
   </si>
@@ -2165,17 +2163,20 @@
     <t>SARS-CoV-2 Virus, Nucleocapsid, Nucleocapsid (N) antigen</t>
   </si>
   <si>
-    <t>refr_Protocol</t>
-  </si>
-  <si>
-    <t>Reference_Study</t>
+    <t>SeroNet_Reference_Study</t>
+  </si>
+  <si>
+    <t>LIAISON VCA IgM Assay (EBV)</t>
+  </si>
+  <si>
+    <t>SeroNet_Reference_Study_protocol-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2201,6 +2202,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4016,8 +4023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4040,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -4077,11 +4084,11 @@
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" t="s">
         <v>676</v>
+      </c>
+      <c r="G4" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4098,11 +4105,11 @@
       <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5" t="s">
         <v>676</v>
+      </c>
+      <c r="G5" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4119,11 +4126,11 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F6" t="s">
         <v>676</v>
+      </c>
+      <c r="G6" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4140,11 +4147,11 @@
       <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F7" t="s">
         <v>676</v>
+      </c>
+      <c r="G7" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="53" x14ac:dyDescent="0.2">
@@ -4161,11 +4168,11 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F8" t="s">
         <v>676</v>
+      </c>
+      <c r="G8" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4182,11 +4189,11 @@
       <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" t="s">
         <v>676</v>
+      </c>
+      <c r="G9" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4203,11 +4210,11 @@
       <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" t="s">
         <v>676</v>
+      </c>
+      <c r="G10" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4224,11 +4231,11 @@
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="F11" t="s">
         <v>676</v>
+      </c>
+      <c r="G11" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="53" x14ac:dyDescent="0.2">
@@ -4245,11 +4252,11 @@
       <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" t="s">
         <v>676</v>
+      </c>
+      <c r="G12" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="66" x14ac:dyDescent="0.2">
@@ -4266,11 +4273,11 @@
       <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" t="s">
         <v>676</v>
+      </c>
+      <c r="G13" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4287,11 +4294,11 @@
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" t="s">
         <v>676</v>
+      </c>
+      <c r="G14" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4308,11 +4315,11 @@
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F15" t="s">
         <v>676</v>
+      </c>
+      <c r="G15" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4329,11 +4336,11 @@
       <c r="E16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16" t="s">
         <v>676</v>
+      </c>
+      <c r="G16" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4350,11 +4357,11 @@
       <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="F17" t="s">
         <v>676</v>
+      </c>
+      <c r="G17" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4371,11 +4378,11 @@
       <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" t="s">
         <v>676</v>
+      </c>
+      <c r="G18" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4392,11 +4399,11 @@
       <c r="E19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" t="s">
         <v>676</v>
+      </c>
+      <c r="G19" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4413,11 +4420,11 @@
       <c r="E20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" t="s">
         <v>676</v>
+      </c>
+      <c r="G20" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4434,11 +4441,11 @@
       <c r="E21" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" t="s">
         <v>676</v>
+      </c>
+      <c r="G21" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4455,11 +4462,11 @@
       <c r="E22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F22" t="s">
         <v>676</v>
+      </c>
+      <c r="G22" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4476,11 +4483,11 @@
       <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" t="s">
         <v>676</v>
+      </c>
+      <c r="G23" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.2">
@@ -4497,11 +4504,11 @@
       <c r="E24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F24" t="s">
         <v>676</v>
+      </c>
+      <c r="G24" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4518,11 +4525,11 @@
       <c r="E25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="F25" t="s">
         <v>676</v>
+      </c>
+      <c r="G25" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="79" x14ac:dyDescent="0.2">
@@ -4539,11 +4546,11 @@
       <c r="E26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" t="s">
         <v>676</v>
+      </c>
+      <c r="G26" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4560,11 +4567,11 @@
       <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="F27" t="s">
         <v>676</v>
+      </c>
+      <c r="G27" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4581,11 +4588,11 @@
       <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28" t="s">
         <v>676</v>
+      </c>
+      <c r="G28" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4602,11 +4609,11 @@
       <c r="E29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29" t="s">
         <v>676</v>
+      </c>
+      <c r="G29" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4623,11 +4630,11 @@
       <c r="E30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="F30" t="s">
         <v>676</v>
+      </c>
+      <c r="G30" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4644,11 +4651,11 @@
       <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="F31" t="s">
         <v>676</v>
+      </c>
+      <c r="G31" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4665,11 +4672,11 @@
       <c r="E32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="F32" t="s">
         <v>676</v>
+      </c>
+      <c r="G32" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4686,11 +4693,11 @@
       <c r="E33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="F33" t="s">
         <v>676</v>
+      </c>
+      <c r="G33" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4699,7 +4706,7 @@
         <v>623</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>663</v>
@@ -4707,11 +4714,11 @@
       <c r="E34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G34" s="1" t="s">
+      <c r="F34" t="s">
         <v>676</v>
+      </c>
+      <c r="G34" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4728,11 +4735,11 @@
       <c r="E35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="F35" t="s">
         <v>676</v>
+      </c>
+      <c r="G35" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4749,11 +4756,11 @@
       <c r="E36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="F36" t="s">
         <v>676</v>
+      </c>
+      <c r="G36" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4770,11 +4777,11 @@
       <c r="E37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G37" s="1" t="s">
+      <c r="F37" t="s">
         <v>676</v>
+      </c>
+      <c r="G37" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="40" x14ac:dyDescent="0.2">
@@ -4791,11 +4798,11 @@
       <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="F38" t="s">
         <v>676</v>
+      </c>
+      <c r="G38" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4812,11 +4819,11 @@
       <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39" t="s">
         <v>676</v>
+      </c>
+      <c r="G39" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4833,11 +4840,11 @@
       <c r="E40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40" t="s">
         <v>676</v>
+      </c>
+      <c r="G40" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="66" x14ac:dyDescent="0.2">
@@ -4854,11 +4861,11 @@
       <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="F41" t="s">
         <v>676</v>
+      </c>
+      <c r="G41" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66" x14ac:dyDescent="0.2">
@@ -4875,11 +4882,11 @@
       <c r="E42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="F42" t="s">
         <v>676</v>
+      </c>
+      <c r="G42" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.2">
@@ -4896,11 +4903,11 @@
       <c r="E43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F43" t="s">
         <v>676</v>
+      </c>
+      <c r="G43" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5655,6 +5662,7 @@
       <c r="G127" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
